--- a/biology/Botanique/Flore_de_Tunisie/Flore_de_Tunisie.xlsx
+++ b/biology/Botanique/Flore_de_Tunisie/Flore_de_Tunisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore de Tunisie est constituée d'une grande diversité de plantes d'affinité principalement méditerranéenne : elle compte 2 828 espèces et sous-espèces, dont 2 526 indigènes, les autres étant des plantes introduites plus ou moins naturalisées (voire envahissantes pour certaines) d'après Alain Dobignard et Cyrille Chatelain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore de Tunisie est constituée d'une grande diversité de plantes d'affinité principalement méditerranéenne : elle compte 2 828 espèces et sous-espèces, dont 2 526 indigènes, les autres étant des plantes introduites plus ou moins naturalisées (voire envahissantes pour certaines) d'après Alain Dobignard et Cyrille Chatelain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces endémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si la Tunisie présente moins d'endémisme que le Maroc ou l'Algérie en raison d'une superficie et d'un relief moindre, elle abrite tout de même 39 à 73 espèces ou sous-espèces endémiques, selon les auteurs. 
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces introduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme en Europe, on distingue en Tunisie les archéophytes (plante introduite avant 1500) des néophytes (plante introduite après 1500). Cette distinction permet de différencier les introductions anciennes, souvent d'origines géographiques proches, de celle plus récentes, survenues après la découverte du continent américain et l'intensification des échanges internationaux. Des espèces très communes dans le paysage méditerranéen, comme le figuier de Barbarie (Opuntia ficus-indica) ou l'agave  (Agave americana) sont en fait d'origine mésoaméricaine.
 </t>
@@ -573,10 +589,12 @@
           <t>Par ordre systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidées
-La famille des Orchidacée est représenté par une cinquantaine d'espèces ou sous-espèces[2]. On retrouve une flore orchidée typiquement méditerranéenne avec une prédominance du genre Ophrys. Plusieurs espèces sont localisées et/ou menacées dont trois présumées disparues du territoire tunisien. Serapias nurrica et Orchis pyramidal ne sont représentées en Tunisie que sur l'archipel de La Galite. La liste exhaustive des espèces de Tunisie est donnée ici d'après Martin et al[1]. avec les synonymes les plus courants :
+La famille des Orchidacée est représenté par une cinquantaine d'espèces ou sous-espèces. On retrouve une flore orchidée typiquement méditerranéenne avec une prédominance du genre Ophrys. Plusieurs espèces sont localisées et/ou menacées dont trois présumées disparues du territoire tunisien. Serapias nurrica et Orchis pyramidal ne sont représentées en Tunisie que sur l'archipel de La Galite. La liste exhaustive des espèces de Tunisie est donnée ici d'après Martin et al. avec les synonymes les plus courants :
 Epidendroideae
 Cephalanthera longifolia
 Platanthera bifolia subsp. Kuenkelei
@@ -659,7 +677,9 @@
           <t>Par type biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Phanérophytes
 Les arbres de Tunisie sont principalement d'affinité méditerranéenne ; les arbres indigènes sont :
